--- a/data/TC007_NegativeLoginTest_With_Email.xlsx
+++ b/data/TC007_NegativeLoginTest_With_Email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aravind\eclipse-workspace\Spicejet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E74CFE-5AD0-47E0-AC44-D320E60DEDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCAEF91-7151-49EB-8D09-34AB40D25A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,12 +99,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -389,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C2"/>
@@ -400,10 +397,9 @@
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,19 +409,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
